--- a/biology/Médecine/Royal_College_of_Physicians/Royal_College_of_Physicians.xlsx
+++ b/biology/Médecine/Royal_College_of_Physicians/Royal_College_of_Physicians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Royal College of Physicians (en français, Collège royal de médecine) est la première institution médicale d'Angleterre à avoir reçu la distinction de « Royal Charter ». Il est fondé en 1518 et est l'une des organisations de professionnels de la médecine des plus actives. Créé sous le nom de « College of Physicians », il reçoit le titre de « royal » en 1674, par un décret du roi Henri VIII. Il s'est consacré à un large éventail d'activités répondant à son objectif global de défense et d'amélioration des normes concernant la pratique de la médecine.
 Le Membership of the Royal College of Physicians (MRCP-UK) est un titre post-grade obtenu par les médecins qui ont réussi l'examen du Collège, réalisé, conjointement avec les trois autres collèges royaux du Royaume-Uni et d'Irlande, par l'intermédiaire de l'un des collèges britanniques. Depuis l'examen conjoint a été initialement mis en place avec les deux autres collèges du Royaume-Uni. L'ancienne qualification du MRCP (MRCP-Londres) a continué à être attribuée, sans examen, à un petit nombre de personnes.
 Les titulaires du MRCP (UK) ont droit à devenir « membre collégial » de l'un ou l'autre des trois collèges britanniques. Les deux types de récipiendaires du MRCP peuvent être pris en compte lors de l'avancement dans l'association. Les Compagnons (Fellows, qui ont le titre de FRCP) sont élus.  
 Le titre de Licencié (LRCP) était traditionnellement attribué aux médecins diplômés étrangers (en incluant les Écossais), mais au XIXe siècle a été intégré dans une très populaire qualification initiale de médecine décernée en commun avec le MRCS (UK) et le « Conjoint Board » et depuis la fin du XXe siècle est largement demandée par les diplômés étrangers. Depuis 1993, le LRCP fut décerné avec le LRCS et le LMSSA par le « United Examining Board » jusqu'à ce que cette voie de qualification soit abolie en 1999.
-Le président du RCP en 2021 est Andrew Goddard[1].
+Le président du RCP en 2021 est Andrew Goddard.
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un petit groupe d'éminents médecins, dirigé par le savant et humaniste Thomas Linacre, envoya une pétition au Roi afin de pouvoir se constituer en Collège comme il en existait dans un certain nombre d'autres pays européens. Les principales fonctions du Collège, telles qu'elles furent définies dans la Charte, étaient d'accorder des licences à ceux qui étaient qualifiés et de sanctionner les praticiens non qualifiés et ceux se livrant à des pratiques inadéquates. Cela concernait les apothicaires comme les médecins. 
 Tout au long de son histoire, le Collège a émis des avis couvrant l'ensemble des activités médicales et des questions de santé.
@@ -551,7 +565,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les collections du collège ont trait à son histoire et à celle de la profession médicale. Ces collections comprennent des portraits, de l'argenterie, des instruments médicaux, la collection Symons, des médailles commémoratives et des tables anatomiques.
 La collection comprend environ 250 portraits (tableaux ou sculptures) de présidents, fellows et autres médecins associés depuis sa fondation en 1518. Elle comprend quelques pièces exceptionnelles d'artistes reconnus comme un buste de Baldwin Hamey Junior par Edward Pierce et un autre de Richard Mead par Louis-François Roubiliac.
@@ -589,6 +605,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -614,7 +632,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le RCP a son siège à St Andrews Place, à l'extrémité nord de Park Square East qui va jusqu'à l'est de Regent's Park), dans un bâtiment conçu par l'architecte Denys Lasdun en 1964. Le bâtiment est un monument classé au Royaume-Uni (grade I). L'utilisation que fit Lasdun de la mosaïque incluse dans le béton a eu une très grande influence sur la construction ultérieure d'immeubles publics.
 </t>
@@ -645,7 +665,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le RCP publie une revue bimensuelle, Clinical Medicine (en), ainsi que des rapports, des guides cliniques et une revue annuelle Horizons in Medicine.
 </t>
